--- a/DZ2/Students.xlsx
+++ b/DZ2/Students.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GeekBrains\DataBases\DZ2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Ученики</t>
   </si>
@@ -172,6 +177,18 @@
   </si>
   <si>
     <t>отчество класс. руководителя</t>
+  </si>
+  <si>
+    <t>- ключ</t>
+  </si>
+  <si>
+    <t>1 vs 1</t>
+  </si>
+  <si>
+    <t>1 vs N</t>
+  </si>
+  <si>
+    <t>N vs N</t>
   </si>
 </sst>
 </file>
@@ -206,7 +223,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,13 +300,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -293,6 +332,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -327,6 +369,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -374,6 +417,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -826,6 +870,9 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1376,7 +1423,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="none"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1468,6 +1516,288 @@
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая соединительная линия 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6410325" y="6381750"/>
+          <a:ext cx="1285876" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Прямая соединительная линия 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="5067300"/>
+          <a:ext cx="0" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Прямая соединительная линия 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6191250" y="5067300"/>
+          <a:ext cx="219076" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая соединительная линия 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7943850" y="676275"/>
+          <a:ext cx="390525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая соединительная линия 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7943850" y="857250"/>
+          <a:ext cx="390525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Прямая соединительная линия 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7943850" y="1057275"/>
+          <a:ext cx="390525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1534,7 +1864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,7 +1899,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1781,7 +2111,7 @@
   <dimension ref="C2:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,6 +2145,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1835,6 +2170,9 @@
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1843,7 +2181,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1857,9 +2195,11 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1882,8 +2222,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1982,6 +2324,9 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1996,6 +2341,9 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2024,7 +2372,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2061,12 +2409,12 @@
         <v>21</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2127,7 +2475,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2350,12 +2698,12 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2385,12 +2733,12 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2403,7 +2751,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2454,7 +2802,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -2515,7 +2863,7 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2552,7 +2900,7 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
